--- a/propuesta fundamerca.xlsx
+++ b/propuesta fundamerca.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="porcentaje" sheetId="1" r:id="rId1"/>
-    <sheet name="Cantidad inicial" sheetId="2" r:id="rId2"/>
-    <sheet name="Muertes" sheetId="3" r:id="rId3"/>
+    <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
+    <sheet name="Muertes" sheetId="3" r:id="rId2"/>
+    <sheet name="Porcentaje" sheetId="1" r:id="rId3"/>
     <sheet name="Intervalos" sheetId="4" r:id="rId4"/>
     <sheet name="Probabilidad predictiva" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="62">
   <si>
     <t>Cód</t>
   </si>
@@ -206,6 +206,15 @@
   <si>
     <t>Código</t>
   </si>
+  <si>
+    <t>INTERVALO FLEXIBLE</t>
+  </si>
+  <si>
+    <t>INTERVALO EXIGENTE</t>
+  </si>
+  <si>
+    <t>INTERVALO GENERAL</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,7 +550,923 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>180</v>
+      </c>
+      <c r="G2">
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>110</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,37 +1513,37 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f>IFERROR(Muertes!C2/'Cantidad inicial'!C2,"")</f>
-        <v/>
-      </c>
-      <c r="D2" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
         <f>IFERROR(Muertes!D2/'Cantidad inicial'!D2,"")</f>
-        <v/>
-      </c>
-      <c r="E2" t="str">
+        <v>0.11</v>
+      </c>
+      <c r="E2">
         <f>IFERROR(Muertes!E2/'Cantidad inicial'!E2,"")</f>
-        <v/>
-      </c>
-      <c r="F2" t="str">
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="F2">
         <f>IFERROR(Muertes!F2/'Cantidad inicial'!F2,"")</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G2">
         <f>IFERROR(Muertes!G2/'Cantidad inicial'!G2,"")</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H2">
         <f>IFERROR(Muertes!H2/'Cantidad inicial'!H2,"")</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
+        <v>0.06</v>
+      </c>
+      <c r="I2">
         <f>IFERROR(Muertes!I2/'Cantidad inicial'!I2,"")</f>
-        <v/>
-      </c>
-      <c r="J2" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="J2">
         <f>IFERROR(Muertes!J2/'Cantidad inicial'!J2,"")</f>
-        <v/>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2499,868 +3424,6 @@
       <c r="J49" t="str">
         <f>IFERROR(Muertes!J49/'Cantidad inicial'!J49,"")</f>
         <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3370,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,7 +3445,13 @@
     <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
@@ -3411,82 +3480,117 @@
         <v>55</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="Q1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <f>IF(Muertes!C2="","",GAMMAINV(0.025,Muertes!C2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D2" t="str">
+        <v>5.1414488912614305</v>
+      </c>
+      <c r="D2">
         <f>IF(Muertes!C2="","",GAMMAINV(0.975,Muertes!C2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E2" t="str">
+        <v>17.739437952863629</v>
+      </c>
+      <c r="E2">
         <f>IF(Muertes!D2="","",GAMMAINV(0.025,Muertes!D2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F2" t="str">
+        <v>14.183076145929924</v>
+      </c>
+      <c r="F2">
         <f>IF(Muertes!D2="","",GAMMAINV(0.975,Muertes!D2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>32.705079504999787</v>
+      </c>
+      <c r="G2">
         <f>IF(Muertes!E2="","",GAMMAINV(0.025,Muertes!E2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
+        <v>7.2866913654108512</v>
+      </c>
+      <c r="H2">
         <f>IF(Muertes!E2="","",GAMMAINV(0.975,Muertes!E2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
+        <v>21.597255483078015</v>
+      </c>
+      <c r="I2">
         <f>IF(Muertes!F2="","",GAMMAINV(0.025,Muertes!F2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="J2" t="str">
+        <v>9.523330751587558</v>
+      </c>
+      <c r="J2">
         <f>IF(Muertes!F2="","",GAMMAINV(0.975,Muertes!F2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="K2" t="str">
+        <v>25.362540033140615</v>
+      </c>
+      <c r="K2">
         <f>IF(Muertes!G2="","",GAMMAINV(0.025,Muertes!G2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="L2" t="str">
+        <v>7.2866913654108512</v>
+      </c>
+      <c r="L2">
         <f>IF(Muertes!G2="","",GAMMAINV(0.975,Muertes!G2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="M2" t="str">
+        <v>21.597255483078015</v>
+      </c>
+      <c r="M2">
         <f>IF(Muertes!H2="","",GAMMAINV(0.025,Muertes!H2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="N2" t="str">
+        <v>2.504375255905166</v>
+      </c>
+      <c r="N2">
         <f>IF(Muertes!H2="","",GAMMAINV(0.975,Muertes!H2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="O2" t="str">
+        <v>12.367802442465768</v>
+      </c>
+      <c r="O2">
         <f>IF(Muertes!I2="","",GAMMAINV(0.025,Muertes!I2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="P2" t="str">
+        <v>8.7693692907377443</v>
+      </c>
+      <c r="P2">
         <f>IF(Muertes!I2="","",GAMMAINV(0.975,Muertes!I2+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="Q2" t="str">
+        <v>24.115944797225975</v>
+      </c>
+      <c r="Q2">
+        <f>IF(Muertes!J2="","",GAMMAINV(0.025,Muertes!J2+(1/2),1))</f>
+        <v>3.7820932247887855</v>
+      </c>
+      <c r="R2">
         <f>IF(Muertes!J2="","",GAMMAINV(0.975,Muertes!J2+(1/2),1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
+        <v>15.095504560819901</v>
+      </c>
+      <c r="S2">
+        <f>MIN(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
+        <v>2.504375255905166</v>
+      </c>
+      <c r="T2">
+        <f>MAX(D2,F2,H2,J2,L2,N2,P2,R2)</f>
+        <v>32.705079504999787</v>
+      </c>
+      <c r="U2">
+        <f>MAX(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
+        <v>14.183076145929924</v>
+      </c>
+      <c r="V2">
+        <f>MIN(D2,F2,H2,J2,L2,N2,P2,R2)</f>
+        <v>12.367802442465768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
         <f>IF(Muertes!C3="","",GAMMAINV(0.025,Muertes!C3+(1/2),1))</f>
@@ -3497,12 +3601,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
         <f>IF(Muertes!C4="","",GAMMAINV(0.025,Muertes!C4+(1/2),1))</f>
@@ -3513,12 +3617,12 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
         <f>IF(Muertes!C5="","",GAMMAINV(0.025,Muertes!C5+(1/2),1))</f>
@@ -3529,12 +3633,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="str">
         <f>IF(Muertes!C6="","",GAMMAINV(0.025,Muertes!C6+(1/2),1))</f>
@@ -3545,12 +3649,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
         <f>IF(Muertes!C7="","",GAMMAINV(0.025,Muertes!C7+(1/2),1))</f>
@@ -3561,12 +3665,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="str">
         <f>IF(Muertes!C8="","",GAMMAINV(0.025,Muertes!C8+(1/2),1))</f>
@@ -3577,12 +3681,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="str">
         <f>IF(Muertes!C9="","",GAMMAINV(0.025,Muertes!C9+(1/2),1))</f>
@@ -3593,12 +3697,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="str">
         <f>IF(Muertes!C10="","",GAMMAINV(0.025,Muertes!C10+(1/2),1))</f>
@@ -3609,12 +3713,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="str">
         <f>IF(Muertes!C11="","",GAMMAINV(0.025,Muertes!C11+(1/2),1))</f>
@@ -3625,12 +3729,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="str">
         <f>IF(Muertes!C12="","",GAMMAINV(0.025,Muertes!C12+(1/2),1))</f>
@@ -3641,12 +3745,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="str">
         <f>IF(Muertes!C13="","",GAMMAINV(0.025,Muertes!C13+(1/2),1))</f>
@@ -3657,12 +3761,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="str">
         <f>IF(Muertes!C14="","",GAMMAINV(0.025,Muertes!C14+(1/2),1))</f>
@@ -3673,12 +3777,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="str">
         <f>IF(Muertes!C15="","",GAMMAINV(0.025,Muertes!C15+(1/2),1))</f>
@@ -3689,12 +3793,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="str">
         <f>IF(Muertes!C16="","",GAMMAINV(0.025,Muertes!C16+(1/2),1))</f>
@@ -3706,11 +3810,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="str">
         <f>IF(Muertes!C17="","",GAMMAINV(0.025,Muertes!C17+(1/2),1))</f>
@@ -3722,11 +3826,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="str">
         <f>IF(Muertes!C18="","",GAMMAINV(0.025,Muertes!C18+(1/2),1))</f>
@@ -3738,11 +3842,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="str">
         <f>IF(Muertes!C19="","",GAMMAINV(0.025,Muertes!C19+(1/2),1))</f>
@@ -3754,11 +3858,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="str">
         <f>IF(Muertes!C20="","",GAMMAINV(0.025,Muertes!C20+(1/2),1))</f>
@@ -3770,11 +3874,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="str">
         <f>IF(Muertes!C21="","",GAMMAINV(0.025,Muertes!C21+(1/2),1))</f>
@@ -3786,11 +3890,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="str">
         <f>IF(Muertes!C22="","",GAMMAINV(0.025,Muertes!C22+(1/2),1))</f>
@@ -3802,11 +3906,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="str">
         <f>IF(Muertes!C23="","",GAMMAINV(0.025,Muertes!C23+(1/2),1))</f>
@@ -3818,11 +3922,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="str">
         <f>IF(Muertes!C24="","",GAMMAINV(0.025,Muertes!C24+(1/2),1))</f>
@@ -3834,11 +3938,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="str">
         <f>IF(Muertes!C25="","",GAMMAINV(0.025,Muertes!C25+(1/2),1))</f>
@@ -3850,11 +3954,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="str">
         <f>IF(Muertes!C26="","",GAMMAINV(0.025,Muertes!C26+(1/2),1))</f>
@@ -3866,11 +3970,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="str">
         <f>IF(Muertes!C27="","",GAMMAINV(0.025,Muertes!C27+(1/2),1))</f>
@@ -3882,11 +3986,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="str">
         <f>IF(Muertes!C28="","",GAMMAINV(0.025,Muertes!C28+(1/2),1))</f>
@@ -3898,11 +4002,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="str">
         <f>IF(Muertes!C29="","",GAMMAINV(0.025,Muertes!C29+(1/2),1))</f>
@@ -3914,11 +4018,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="str">
         <f>IF(Muertes!C30="","",GAMMAINV(0.025,Muertes!C30+(1/2),1))</f>
@@ -3930,11 +4034,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="str">
         <f>IF(Muertes!C31="","",GAMMAINV(0.025,Muertes!C31+(1/2),1))</f>
@@ -3946,11 +4050,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="str">
         <f>IF(Muertes!C32="","",GAMMAINV(0.025,Muertes!C32+(1/2),1))</f>
@@ -3962,11 +4066,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="str">
         <f>IF(Muertes!C33="","",GAMMAINV(0.025,Muertes!C33+(1/2),1))</f>
@@ -3978,11 +4082,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="str">
         <f>IF(Muertes!C34="","",GAMMAINV(0.025,Muertes!C34+(1/2),1))</f>
@@ -3994,11 +4098,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="str">
         <f>IF(Muertes!C35="","",GAMMAINV(0.025,Muertes!C35+(1/2),1))</f>
@@ -4010,11 +4114,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="str">
         <f>IF(Muertes!C36="","",GAMMAINV(0.025,Muertes!C36+(1/2),1))</f>
@@ -4026,11 +4130,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="str">
         <f>IF(Muertes!C37="","",GAMMAINV(0.025,Muertes!C37+(1/2),1))</f>
@@ -4042,11 +4146,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="str">
         <f>IF(Muertes!C38="","",GAMMAINV(0.025,Muertes!C38+(1/2),1))</f>
@@ -4058,11 +4162,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="str">
         <f>IF(Muertes!C39="","",GAMMAINV(0.025,Muertes!C39+(1/2),1))</f>
@@ -4074,11 +4178,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="str">
         <f>IF(Muertes!C40="","",GAMMAINV(0.025,Muertes!C40+(1/2),1))</f>
@@ -4090,11 +4194,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="str">
         <f>IF(Muertes!C41="","",GAMMAINV(0.025,Muertes!C41+(1/2),1))</f>
@@ -4106,11 +4210,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="str">
         <f>IF(Muertes!C42="","",GAMMAINV(0.025,Muertes!C42+(1/2),1))</f>
@@ -4122,11 +4226,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" t="str">
         <f>IF(Muertes!C43="","",GAMMAINV(0.025,Muertes!C43+(1/2),1))</f>
@@ -4138,11 +4242,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="str">
         <f>IF(Muertes!C44="","",GAMMAINV(0.025,Muertes!C44+(1/2),1))</f>
@@ -4154,11 +4258,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="str">
         <f>IF(Muertes!C45="","",GAMMAINV(0.025,Muertes!C45+(1/2),1))</f>
@@ -4170,11 +4274,11 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" t="str">
         <f>IF(Muertes!C46="","",GAMMAINV(0.025,Muertes!C46+(1/2),1))</f>
@@ -4186,11 +4290,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" t="str">
         <f>IF(Muertes!C47="","",GAMMAINV(0.025,Muertes!C47+(1/2),1))</f>
@@ -4202,11 +4306,11 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" t="str">
         <f>IF(Muertes!C48="","",GAMMAINV(0.025,Muertes!C48+(1/2),1))</f>
@@ -4218,11 +4322,11 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="str">
         <f>IF(Muertes!C49="","",GAMMAINV(0.025,Muertes!C49+(1/2),1))</f>
@@ -4234,12 +4338,6 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
       <c r="C50" t="str">
         <f>IF(Muertes!C50="","",GAMMAINV(0.025,Muertes!C50+(1/2),1))</f>
         <v/>
@@ -4250,12 +4348,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
@@ -4268,7 +4370,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,37 +4417,37 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!C2,Muertes!C2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="D2" t="str">
+        <v>0.41190147399902344</v>
+      </c>
+      <c r="D2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!D2,Muertes!D2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="E2" t="str">
+        <v>0.4401979106403362</v>
+      </c>
+      <c r="E2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!E2,Muertes!E2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="F2" t="str">
+        <v>0.42250949144363426</v>
+      </c>
+      <c r="F2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!F2,Muertes!F2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>0.43002503295429073</v>
+      </c>
+      <c r="G2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!G2,Muertes!G2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
+        <v>0.42250949144363426</v>
+      </c>
+      <c r="H2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!H2,Muertes!H2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
+        <v>0.38720703125000011</v>
+      </c>
+      <c r="I2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!I2,Muertes!I2+0.5,0.5,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="J2" t="str">
+        <v>0.42776777595281623</v>
+      </c>
+      <c r="J2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!J2,Muertes!J2+0.5,0.5,TRUE),"")</f>
-        <v/>
+        <v>0.40180969238281272</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/propuesta fundamerca.xlsx
+++ b/propuesta fundamerca.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
     <sheet name="Muertes" sheetId="3" r:id="rId2"/>
     <sheet name="Porcentaje" sheetId="1" r:id="rId3"/>
-    <sheet name="Intervalos" sheetId="4" r:id="rId4"/>
-    <sheet name="Probabilidad predictiva" sheetId="5" r:id="rId5"/>
+    <sheet name="Intervalos propuestos" sheetId="6" r:id="rId4"/>
+    <sheet name="Intervalos Generados" sheetId="4" r:id="rId5"/>
+    <sheet name="Probabilidad predictiva" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="67">
   <si>
     <t>Cód</t>
   </si>
@@ -215,13 +216,36 @@
   <si>
     <t>INTERVALO GENERAL</t>
   </si>
+  <si>
+    <t>Intervalo flexible</t>
+  </si>
+  <si>
+    <t>Intervalo exigente</t>
+  </si>
+  <si>
+    <t>Intervalo general</t>
+  </si>
+  <si>
+    <t>Inferior</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,10 +279,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,7 +304,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1465,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,15 +3481,1354 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{3B05B6FF-DBFA-4D6C-B31A-748187A34575}">
+            <xm:f>AND($C$2&lt;'Intervalos propuestos'!$E$3,$C$2&gt;'Intervalos propuestos'!$F$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:J49</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.7788152551082606E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.5913877215295975E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.8464555865077115E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.6502590428620278E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.3414972184710972E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.6674151400936892E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0581631174453454E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.9117242344121874E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.5488285801558477E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6.7478812792070991E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.106673259562489E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7.3436214326617177E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.1754046717507276E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.7318606749461773E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.1339404543395446E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.0131485534768455E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0329237378989365E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4710162081052607E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.2428363815292233E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.10037325114945084</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.5405554786504858E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.3168264260430854E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.3008271084828922E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.731704095244782E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0020640545174228E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.7545953319678831E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.861410975446065E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.9055701752429751E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.9134794183380709E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.1826768434740416E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0000451058836728E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.11155978396773025</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.411553244548692E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.9865880475373505E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.3870699057990856E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.9392263888921493E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0466577968975184E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.1052604365895777E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.9928097326246008E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.3390765979019546E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.6458873104556875E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.9852582128780853E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.2810853173733503E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.3201112315604324E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.4499390410438795E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.6556371699174315E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.0089030134216314E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.2832604597176185E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.8405081358488655E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.7382290388109842E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.6996802499655517E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.894964882288637E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.0094960846399338E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4.206170296942402E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.180265033409368E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.3753696224667773E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.2465822272314102E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.4324485196669464E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.8801966687877778E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.5959345168451913E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.3798118951068071E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.5245988168233229E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.7855731346684065E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.4652583497444871E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.1149333196670782E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.6159688402027768E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.503385333038859E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.4120639177866163E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.2528171559232359E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.490340907495977E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.1083080694232848E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5.4345233650403557E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.6969719322400365E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.11789028780157729</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.2653342394252984E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.10502449496865905</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.3142797746995395E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.5172849927653922E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.2068855356824868E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7.7327671070721693E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.5992626733667414E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6.3574655205062849E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.2390096495922248E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.4397073626333485E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.506489837461525E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.996780784975043E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.958287330209485E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6.0054134380961979E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.5916392320685546E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.738648584844706E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0997091196700955E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.10238673742963478</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.9443783600047393E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8.7463724666055731E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.1449066282051826E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.370134410316262E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.8420455287964152E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.4432235631596733E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.740227397717109E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5.6350813646779553E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.8176329022937288E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.1597134030222702E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.3460181046352338E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.10313654794550842</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.0512659653128429E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7.6330936165841884E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7.3769529119208893E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7.9122961368643385E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.3265827355353501E-3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.7705555294467747E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8.3392021204187206E-3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9.5607521931984768E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.043219268729299E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.2887497441944191E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3.4027250530356758E-3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7.054415466789421E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.4631815168728801E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.9641027899044961E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.9310772199238683E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.2638638966859035E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.4870021380749694E-3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6.357589266390129E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.8071113181189591E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.4751367704510057E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3.2392177225255052E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.5261078564105319E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.9824077603693131E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.10493368403602865</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.9362577136936565E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8.0971522858486522E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.5093608922868083E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5.9121885703156019E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7.9580120086738468E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7.6702967402606625E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.5933966830937729E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5.537644217549683E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.4372810211299523E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.7487804200787789E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.6867875816285214E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6.4783418224861333E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.1819024573725199E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.5897816608143996E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.1919873512861264E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4.3537426120741629E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.2849933142418673E-4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9.330641917543625E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9.7609709574213444E-3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7.3096590804953648E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.9264505700703974E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3.1809961791843366E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.4220173564151612E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.10067736645664904</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.6828883816560012E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7.4186838650892623E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5.6283054035471985E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6.0979041549275581E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.0955613625522732E-3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>9.1460393991038336E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.4545521517898785E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7.1445980706064643E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5.1730331284711994E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.5299310051269868E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.4035753845365116E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8.9076258183104939E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.4372543362244148E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6.8977307187676487E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.3410819776576031E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5.7112182193912675E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.4979976844291159E-3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7.3365474637230421E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4.047231807107976E-3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.0845626424668862E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3.4956113480661966E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3.696669477062442E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7.1155165317512842E-3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8.4062077258677426E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.4586274342798577E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.4857754252320987E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.1388038893899977E-2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4.4566909993360326E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.0466787871979192E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7.2837734257360953E-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.8882110810163E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.3986217274952807E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3.9977677057111548E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4.3121192123154461E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.0867700627293417E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6.4569622773026247E-2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9.3183749251233294E-3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.5358889203911186E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3.3705190744545768E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3.6968646183064613E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.0595299369769424E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.10933469277531627</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.7782747633616647E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9.093857077439485E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5.692874472276329E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>6.0098496522562939E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.573168907624995E-3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5.8032760806448258E-2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.3647336399046694E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4.2589900693957065E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.1185335557600967E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.3894288392701699E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.4699745082761991E-3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8.2622259618890914E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>9.0786124867182627E-3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6.2894482434461677E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.9127811476002312E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.2226673930942815E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.3236475204520384E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7.3021956893641549E-2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.3542555230794737E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.6574956178320581E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.3520024152212835E-2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3.67040937777946E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.1334534236819788E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>6.9639356455248547E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.6988720462365881E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5.6797412621892994E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3.1955243273488081E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3.4001650634348235E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.134472959163948E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7.3593805482852104E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.7368542718371405E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6.0850251608887726E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.3572940730048038E-2</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3.559800281059422E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.0085502919607348E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6.4532134057117663E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.5697641157323194E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5.2772924700858946E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5.3094240911793919E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5.5553065102276311E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <v>7.9580120086738468E-3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.11411080486394343</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.5933966830937729E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9.1452882234430183E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3.7914859997461095E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4.0971378034838968E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.5331462364387463E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.13482718113142067</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.9738379125890493E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.12362510477764389</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6.5446364117353814E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6.7212618949343383E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.7600948455265265E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.13037483261441873</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2.1714556779486527E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.12065692298419085</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6.2129359768308551E-2</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6.3656080301423668E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9.1343993354656428E-3</v>
+      </c>
+      <c r="D45" s="3">
+        <v>6.357589266390129E-2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1.740227397717109E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.6880919492669391E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2.9094463448739227E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3.185229454761962E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.0020640545174228E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.10435570418003848</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1.861410975446065E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8.3027114078755473E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5.7698136969593514E-2</v>
+      </c>
+      <c r="H46" s="3">
+        <v>6.1441799262549335E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8.8259638969281715E-3</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5.6899429082496567E-2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.937733763323457E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3.7614089485154246E-2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2.7871432053764932E-2</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3.159015564156431E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9.1304019438005219E-3</v>
+      </c>
+      <c r="D48" s="3">
+        <v>7.8642413598954963E-2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1.4858957604453216E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6.5692966787837093E-2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3.3119127644909013E-2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3.509925354059984E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.1112430356061909E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>6.6668813796111004E-2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2.0474878538684349E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4.8301445094402512E-2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3.1027292586214946E-2</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3.3950861633463281E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.2389613390461286E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.12289871588113555</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2.3780909163713004E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>9.8112121407240391E-2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>5.0667044761728286E-2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>5.4892513796904963E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,50 +4844,50 @@
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4" t="s">
+      <c r="T1" s="6"/>
+      <c r="U1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="4"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -4365,7 +5757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>

--- a/propuesta fundamerca.xlsx
+++ b/propuesta fundamerca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="2" r:id="rId1"/>
@@ -304,28 +304,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,7 +596,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,28 +644,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
         <v>100</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>180</v>
-      </c>
-      <c r="G2">
-        <v>160</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>110</v>
-      </c>
-      <c r="J2">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -697,6 +672,9 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,7 +1039,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,27 +1087,9 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2">
         <v>8</v>
       </c>
     </row>
@@ -1155,6 +1115,9 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1519,7 +1482,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,35 +1531,35 @@
       </c>
       <c r="C2">
         <f>IFERROR(Muertes!C2/'Cantidad inicial'!C2,"")</f>
-        <v>0.1</v>
+        <v>2E-3</v>
       </c>
       <c r="D2">
         <f>IFERROR(Muertes!D2/'Cantidad inicial'!D2,"")</f>
-        <v>0.11</v>
-      </c>
-      <c r="E2">
+        <v>0.08</v>
+      </c>
+      <c r="E2" t="str">
         <f>IFERROR(Muertes!E2/'Cantidad inicial'!E2,"")</f>
-        <v>8.666666666666667E-2</v>
-      </c>
-      <c r="F2">
+        <v/>
+      </c>
+      <c r="F2" t="str">
         <f>IFERROR(Muertes!F2/'Cantidad inicial'!F2,"")</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="G2">
+        <v/>
+      </c>
+      <c r="G2" t="str">
         <f>IFERROR(Muertes!G2/'Cantidad inicial'!G2,"")</f>
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="H2">
+        <v/>
+      </c>
+      <c r="H2" t="str">
         <f>IFERROR(Muertes!H2/'Cantidad inicial'!H2,"")</f>
-        <v>0.06</v>
-      </c>
-      <c r="I2">
+        <v/>
+      </c>
+      <c r="I2" t="str">
         <f>IFERROR(Muertes!I2/'Cantidad inicial'!I2,"")</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="J2">
+        <v/>
+      </c>
+      <c r="J2" t="str">
         <f>IFERROR(Muertes!J2/'Cantidad inicial'!J2,"")</f>
-        <v>8.8888888888888892E-2</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,9 +1649,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f>IFERROR(Muertes!C5/'Cantidad inicial'!C5,"")</f>
-        <v/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(Muertes!D5/'Cantidad inicial'!D5,"")</f>
@@ -3481,22 +3444,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{3B05B6FF-DBFA-4D6C-B31A-748187A34575}">
-            <xm:f>AND($C$2&lt;'Intervalos propuestos'!$E$3,$C$2&gt;'Intervalos propuestos'!$F$3)</xm:f>
+          <x14:cfRule type="expression" priority="1" id="{F0E5EDA9-07DA-4AB7-BE05-20B60A455445}">
+            <xm:f>C2&gt;'Intervalos propuestos'!$F3</xm:f>
             <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color auto="1"/>
-              </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFF0000"/>
+                  <bgColor rgb="FFFFCC99"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3513,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4898,83 +4856,83 @@
       </c>
       <c r="C2">
         <f>IF(Muertes!C2="","",GAMMAINV(0.025,Muertes!C2+(1/2),1))</f>
-        <v>5.1414488912614305</v>
+        <v>0.41560580674333131</v>
       </c>
       <c r="D2">
         <f>IF(Muertes!C2="","",GAMMAINV(0.975,Muertes!C2+(1/2),1))</f>
-        <v>17.739437952863629</v>
+        <v>6.4162509970150108</v>
       </c>
       <c r="E2">
         <f>IF(Muertes!D2="","",GAMMAINV(0.025,Muertes!D2+(1/2),1))</f>
-        <v>14.183076145929924</v>
+        <v>3.7820932247887855</v>
       </c>
       <c r="F2">
         <f>IF(Muertes!D2="","",GAMMAINV(0.975,Muertes!D2+(1/2),1))</f>
-        <v>32.705079504999787</v>
-      </c>
-      <c r="G2">
+        <v>15.095504560819901</v>
+      </c>
+      <c r="G2" t="str">
         <f>IF(Muertes!E2="","",GAMMAINV(0.025,Muertes!E2+(1/2),1))</f>
-        <v>7.2866913654108512</v>
-      </c>
-      <c r="H2">
+        <v/>
+      </c>
+      <c r="H2" t="str">
         <f>IF(Muertes!E2="","",GAMMAINV(0.975,Muertes!E2+(1/2),1))</f>
-        <v>21.597255483078015</v>
-      </c>
-      <c r="I2">
+        <v/>
+      </c>
+      <c r="I2" t="str">
         <f>IF(Muertes!F2="","",GAMMAINV(0.025,Muertes!F2+(1/2),1))</f>
-        <v>9.523330751587558</v>
-      </c>
-      <c r="J2">
+        <v/>
+      </c>
+      <c r="J2" t="str">
         <f>IF(Muertes!F2="","",GAMMAINV(0.975,Muertes!F2+(1/2),1))</f>
-        <v>25.362540033140615</v>
-      </c>
-      <c r="K2">
+        <v/>
+      </c>
+      <c r="K2" t="str">
         <f>IF(Muertes!G2="","",GAMMAINV(0.025,Muertes!G2+(1/2),1))</f>
-        <v>7.2866913654108512</v>
-      </c>
-      <c r="L2">
+        <v/>
+      </c>
+      <c r="L2" t="str">
         <f>IF(Muertes!G2="","",GAMMAINV(0.975,Muertes!G2+(1/2),1))</f>
-        <v>21.597255483078015</v>
-      </c>
-      <c r="M2">
+        <v/>
+      </c>
+      <c r="M2" t="str">
         <f>IF(Muertes!H2="","",GAMMAINV(0.025,Muertes!H2+(1/2),1))</f>
-        <v>2.504375255905166</v>
-      </c>
-      <c r="N2">
+        <v/>
+      </c>
+      <c r="N2" t="str">
         <f>IF(Muertes!H2="","",GAMMAINV(0.975,Muertes!H2+(1/2),1))</f>
-        <v>12.367802442465768</v>
-      </c>
-      <c r="O2">
+        <v/>
+      </c>
+      <c r="O2" t="str">
         <f>IF(Muertes!I2="","",GAMMAINV(0.025,Muertes!I2+(1/2),1))</f>
-        <v>8.7693692907377443</v>
-      </c>
-      <c r="P2">
+        <v/>
+      </c>
+      <c r="P2" t="str">
         <f>IF(Muertes!I2="","",GAMMAINV(0.975,Muertes!I2+(1/2),1))</f>
-        <v>24.115944797225975</v>
-      </c>
-      <c r="Q2">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
         <f>IF(Muertes!J2="","",GAMMAINV(0.025,Muertes!J2+(1/2),1))</f>
-        <v>3.7820932247887855</v>
-      </c>
-      <c r="R2">
+        <v/>
+      </c>
+      <c r="R2" t="str">
         <f>IF(Muertes!J2="","",GAMMAINV(0.975,Muertes!J2+(1/2),1))</f>
-        <v>15.095504560819901</v>
+        <v/>
       </c>
       <c r="S2">
         <f>MIN(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
-        <v>2.504375255905166</v>
+        <v>0.41560580674333131</v>
       </c>
       <c r="T2">
         <f>MAX(D2,F2,H2,J2,L2,N2,P2,R2)</f>
-        <v>32.705079504999787</v>
+        <v>15.095504560819901</v>
       </c>
       <c r="U2">
         <f>MAX(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
-        <v>14.183076145929924</v>
+        <v>3.7820932247887855</v>
       </c>
       <c r="V2">
         <f>MIN(D2,F2,H2,J2,L2,N2,P2,R2)</f>
-        <v>12.367802442465768</v>
+        <v>6.4162509970150108</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -5016,13 +4974,13 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f>IF(Muertes!C5="","",GAMMAINV(0.025,Muertes!C5+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D5" t="str">
+        <v>3.453832176748501</v>
+      </c>
+      <c r="D5">
         <f>IF(Muertes!C5="","",GAMMAINV(0.975,Muertes!C5+(1/2),1))</f>
-        <v/>
+        <v>14.422675361702382</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -5811,35 +5769,35 @@
       </c>
       <c r="C2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!C2,Muertes!C2+0.5,0.5,TRUE),"")</f>
-        <v>0.41190147399902344</v>
+        <v>0.3125</v>
       </c>
       <c r="D2">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!D2,Muertes!D2+0.5,0.5,TRUE),"")</f>
-        <v>0.4401979106403362</v>
-      </c>
-      <c r="E2">
+        <v>0.40180969238281272</v>
+      </c>
+      <c r="E2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!E2,Muertes!E2+0.5,0.5,TRUE),"")</f>
-        <v>0.42250949144363426</v>
-      </c>
-      <c r="F2">
+        <v/>
+      </c>
+      <c r="F2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!F2,Muertes!F2+0.5,0.5,TRUE),"")</f>
-        <v>0.43002503295429073</v>
-      </c>
-      <c r="G2">
+        <v/>
+      </c>
+      <c r="G2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!G2,Muertes!G2+0.5,0.5,TRUE),"")</f>
-        <v>0.42250949144363426</v>
-      </c>
-      <c r="H2">
+        <v/>
+      </c>
+      <c r="H2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!H2,Muertes!H2+0.5,0.5,TRUE),"")</f>
-        <v>0.38720703125000011</v>
-      </c>
-      <c r="I2">
+        <v/>
+      </c>
+      <c r="I2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!I2,Muertes!I2+0.5,0.5,TRUE),"")</f>
-        <v>0.42776777595281623</v>
-      </c>
-      <c r="J2">
+        <v/>
+      </c>
+      <c r="J2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!J2,Muertes!J2+0.5,0.5,TRUE),"")</f>
-        <v>0.40180969238281272</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5929,9 +5887,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!C5,Muertes!C5+0.5,0.5,TRUE),"")</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!D5,Muertes!D5+0.5,0.5,TRUE),"")</f>

--- a/propuesta fundamerca.xlsx
+++ b/propuesta fundamerca.xlsx
@@ -330,6 +330,5675 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>PORCENTAJE DE MORTALIDAD POR CICLO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALBEIRO HERNANDEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALDEMAR TRUJILLO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALEXANDER HERNANDEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ANA LUCIA MINA </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARMANDO GOMEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CARMELO MOSQUERA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CIBARY LUCUMY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ELSA MEZU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESCUELA VERDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FABIOLA USURIAGA </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLORELIA QUINTERO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FUNDESIA CASA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GIOVANI ROCHA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HECTOR FABIO CORREA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HECTOR FABIO MORENO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HERMES BELTRAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HUBER VASQUEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDALIA NAZARITH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISMELDA BALANTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JIMENA VILLEGAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$21:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JOSE HARVI BASAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LEYDI HELENA BALANTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUEINER ADIELA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUIS HERNAN BRAND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUIS OBEIMAR MINA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUZ DARY MINA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUZ DARY NIETO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LUZ DARY ORTIZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MANAEM LUCUMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$30:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MANUEL CHATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARIA ANGELA TUQUERREZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARIA BRISEIDA VIDAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$33:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARIA HELENA ESCOBAR y RODRIGO MEJIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$34:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARIA INES LUCUMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$35:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARIA JANETH CHICUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARISELA VALENCIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NELCY LUCUMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NORA MELVY MEJIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NORFY VELASCO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUBIA USSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$41:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PEDRO JULIAN SALINAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$42:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAMIRO MORENO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$43:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RIGOBERTO LUCUMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$44:$J$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="43"/>
+          <c:order val="43"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RONALD TRUJILLO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$45:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROSA E MINOTTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$46:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUBIELA BALANTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$47:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUFINA MANCILLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$48:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="47"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Porcentaje!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SORAIDA ESCOBAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CICLO 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CICLO 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CICLO 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CICLO 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CICLO 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CICLO 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CICLO 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CICLO 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Porcentaje!$C$49:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-69B9-411C-BAD1-CF85E74FF44E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1400395263"/>
+        <c:axId val="1400382367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1400395263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400382367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400382367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400395263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -596,7 +6265,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,12 +6312,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -672,9 +6335,6 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1039,7 +6699,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,12 +6746,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1115,9 +6769,6 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1482,7 +7133,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,13 +7180,13 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f>IFERROR(Muertes!C2/'Cantidad inicial'!C2,"")</f>
-        <v>2E-3</v>
-      </c>
-      <c r="D2">
+        <v/>
+      </c>
+      <c r="D2" t="str">
         <f>IFERROR(Muertes!D2/'Cantidad inicial'!D2,"")</f>
-        <v>0.08</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <f>IFERROR(Muertes!E2/'Cantidad inicial'!E2,"")</f>
@@ -1649,9 +7300,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f>IFERROR(Muertes!C5/'Cantidad inicial'!C5,"")</f>
-        <v>7.4999999999999997E-2</v>
+        <v/>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(Muertes!D5/'Cantidad inicial'!D5,"")</f>
@@ -3445,6 +9096,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4854,21 +10506,21 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f>IF(Muertes!C2="","",GAMMAINV(0.025,Muertes!C2+(1/2),1))</f>
-        <v>0.41560580674333131</v>
-      </c>
-      <c r="D2">
+        <v/>
+      </c>
+      <c r="D2" t="str">
         <f>IF(Muertes!C2="","",GAMMAINV(0.975,Muertes!C2+(1/2),1))</f>
-        <v>6.4162509970150108</v>
-      </c>
-      <c r="E2">
+        <v/>
+      </c>
+      <c r="E2" t="str">
         <f>IF(Muertes!D2="","",GAMMAINV(0.025,Muertes!D2+(1/2),1))</f>
-        <v>3.7820932247887855</v>
-      </c>
-      <c r="F2">
+        <v/>
+      </c>
+      <c r="F2" t="str">
         <f>IF(Muertes!D2="","",GAMMAINV(0.975,Muertes!D2+(1/2),1))</f>
-        <v>15.095504560819901</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <f>IF(Muertes!E2="","",GAMMAINV(0.025,Muertes!E2+(1/2),1))</f>
@@ -4920,19 +10572,19 @@
       </c>
       <c r="S2">
         <f>MIN(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
-        <v>0.41560580674333131</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f>MAX(D2,F2,H2,J2,L2,N2,P2,R2)</f>
-        <v>15.095504560819901</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f>MAX(C2,E2,G2,I2,K2,M2,O2,Q2)</f>
-        <v>3.7820932247887855</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f>MIN(D2,F2,H2,J2,L2,N2,P2,R2)</f>
-        <v>6.4162509970150108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -4974,13 +10626,13 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f>IF(Muertes!C5="","",GAMMAINV(0.025,Muertes!C5+(1/2),1))</f>
-        <v>3.453832176748501</v>
-      </c>
-      <c r="D5">
+        <v/>
+      </c>
+      <c r="D5" t="str">
         <f>IF(Muertes!C5="","",GAMMAINV(0.975,Muertes!C5+(1/2),1))</f>
-        <v>14.422675361702382</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -5699,17 +11351,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5767,13 +11419,13 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!C2,Muertes!C2+0.5,0.5,TRUE),"")</f>
-        <v>0.3125</v>
-      </c>
-      <c r="D2">
+        <v/>
+      </c>
+      <c r="D2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!D2,Muertes!D2+0.5,0.5,TRUE),"")</f>
-        <v>0.40180969238281272</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!E2,Muertes!E2+0.5,0.5,TRUE),"")</f>
@@ -5887,9 +11539,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!C5,Muertes!C5+0.5,0.5,TRUE),"")</f>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(1-_xlfn.NEGBINOM.DIST(Muertes!D5,Muertes!D5+0.5,0.5,TRUE),"")</f>
